--- a/additional baseline.xlsx
+++ b/additional baseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reza/Downloads/ICML_2025_Response/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A958D184-9A9E-AE4D-BC03-CFE21134164F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0C9BAE-B42D-CF48-B026-9E4E9CCA01EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="860" windowWidth="28040" windowHeight="16300" xr2:uid="{FBD0206F-A4A8-9E4A-83D8-4E16B19684BC}"/>
+    <workbookView xWindow="760" yWindow="0" windowWidth="28040" windowHeight="16300" xr2:uid="{FBD0206F-A4A8-9E4A-83D8-4E16B19684BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,13 +55,13 @@
     <t>CycleReview-70B</t>
   </si>
   <si>
-    <t>CycleResearch-12B</t>
-  </si>
-  <si>
     <t>En-F1</t>
   </si>
   <si>
     <t>Llama 3.1-70B</t>
+  </si>
+  <si>
+    <t>CycleResearch-72B</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>42.78</v>
@@ -496,12 +496,12 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>22.92</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>21.16</v>
